--- a/_tools/cp2pb/menus-cp2pb.xlsx
+++ b/_tools/cp2pb/menus-cp2pb.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1547" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1559" uniqueCount="271">
   <si>
     <t>Admin</t>
   </si>
@@ -296,9 +296,6 @@
     <t>Advanced URL Settings</t>
   </si>
   <si>
-    <t>???</t>
-  </si>
-  <si>
     <t>Site Details</t>
   </si>
   <si>
@@ -831,6 +828,15 @@
   </si>
   <si>
     <t>scr-AdvancedSettings-abbr-E85.png</t>
+  </si>
+  <si>
+    <t>Basic Login Settings</t>
+  </si>
+  <si>
+    <t>&lt;uicontrol&gt;HTML Page Header Tags&lt;/uicontrol&gt; only. The rest were deprecated.</t>
+  </si>
+  <si>
+    <t>&lt;uicontrol&gt;Site TimeZone&lt;/uicontrol&gt; only. The rest were deprecated.</t>
   </si>
 </sst>
 </file>
@@ -1165,9 +1171,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P211"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K39" sqref="K39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1193,207 +1199,207 @@
   <sheetData>
     <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>206</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="2" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E2"/>
       <c r="H2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E3"/>
       <c r="H3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E4"/>
       <c r="H4" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E5"/>
       <c r="H5" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E6"/>
       <c r="H6" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E7"/>
       <c r="H7" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E8"/>
       <c r="H8" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E9"/>
       <c r="H9" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D10" t="s">
         <v>0</v>
@@ -1402,18 +1408,18 @@
         <v>8</v>
       </c>
       <c r="H10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D11" t="s">
         <v>0</v>
@@ -1422,18 +1428,18 @@
         <v>9</v>
       </c>
       <c r="H11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D12" t="s">
         <v>0</v>
@@ -1453,13 +1459,13 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D13" t="s">
         <v>0</v>
@@ -1479,13 +1485,13 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D14" t="s">
         <v>0</v>
@@ -1505,13 +1511,13 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D15" t="s">
         <v>0</v>
@@ -1531,13 +1537,13 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D16" t="s">
         <v>0</v>
@@ -1555,15 +1561,15 @@
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D17" t="s">
         <v>0</v>
@@ -1575,13 +1581,13 @@
         <v>6</v>
       </c>
       <c r="G17" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H17" t="s">
         <v>85</v>
       </c>
       <c r="I17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K17" t="s">
         <v>69</v>
@@ -1590,18 +1596,18 @@
         <v>6</v>
       </c>
       <c r="M17" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D18" t="s">
         <v>0</v>
@@ -1613,13 +1619,13 @@
         <v>6</v>
       </c>
       <c r="G18" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H18" t="s">
         <v>85</v>
       </c>
       <c r="I18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K18" t="s">
         <v>69</v>
@@ -1628,18 +1634,18 @@
         <v>72</v>
       </c>
       <c r="M18" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D19" t="s">
         <v>0</v>
@@ -1651,13 +1657,13 @@
         <v>6</v>
       </c>
       <c r="G19" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H19" t="s">
         <v>85</v>
       </c>
       <c r="I19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K19" t="s">
         <v>69</v>
@@ -1666,18 +1672,18 @@
         <v>6</v>
       </c>
       <c r="M19" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B20" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D20" t="s">
         <v>0</v>
@@ -1689,7 +1695,7 @@
         <v>6</v>
       </c>
       <c r="G20" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H20" t="s">
         <v>86</v>
@@ -1704,21 +1710,21 @@
         <v>6</v>
       </c>
       <c r="M20" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="N20" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B21" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D21" t="s">
         <v>0</v>
@@ -1730,27 +1736,36 @@
         <v>6</v>
       </c>
       <c r="G21" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H21" t="s">
         <v>86</v>
       </c>
       <c r="I21" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K21" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="L21" t="s">
+        <v>70</v>
+      </c>
+      <c r="M21" t="s">
+        <v>199</v>
+      </c>
+      <c r="N21" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B22" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D22" t="s">
         <v>0</v>
@@ -1762,27 +1777,27 @@
         <v>6</v>
       </c>
       <c r="G22" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H22" t="s">
         <v>86</v>
       </c>
       <c r="I22" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K22" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D23" t="s">
         <v>0</v>
@@ -1794,27 +1809,36 @@
         <v>6</v>
       </c>
       <c r="G23" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H23" t="s">
         <v>86</v>
       </c>
       <c r="I23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K23" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="L23" t="s">
+        <v>6</v>
+      </c>
+      <c r="M23" t="s">
+        <v>178</v>
+      </c>
+      <c r="P23" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B24" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D24" t="s">
         <v>0</v>
@@ -1826,13 +1850,13 @@
         <v>6</v>
       </c>
       <c r="G24" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H24" t="s">
         <v>86</v>
       </c>
       <c r="I24" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K24" t="s">
         <v>69</v>
@@ -1841,21 +1865,21 @@
         <v>6</v>
       </c>
       <c r="M24" t="s">
+        <v>191</v>
+      </c>
+      <c r="N24" t="s">
         <v>192</v>
       </c>
-      <c r="N24" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B25" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D25" t="s">
         <v>0</v>
@@ -1867,13 +1891,13 @@
         <v>6</v>
       </c>
       <c r="G25" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H25" t="s">
         <v>86</v>
       </c>
       <c r="I25" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K25" t="s">
         <v>69</v>
@@ -1882,21 +1906,21 @@
         <v>6</v>
       </c>
       <c r="M25" t="s">
+        <v>191</v>
+      </c>
+      <c r="N25" t="s">
         <v>192</v>
       </c>
-      <c r="N25" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B26" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D26" t="s">
         <v>0</v>
@@ -1908,13 +1932,13 @@
         <v>6</v>
       </c>
       <c r="G26" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H26" t="s">
         <v>86</v>
       </c>
       <c r="I26" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K26" t="s">
         <v>69</v>
@@ -1923,21 +1947,21 @@
         <v>6</v>
       </c>
       <c r="M26" t="s">
+        <v>191</v>
+      </c>
+      <c r="N26" t="s">
         <v>192</v>
       </c>
-      <c r="N26" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B27" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D27" t="s">
         <v>0</v>
@@ -1949,13 +1973,13 @@
         <v>6</v>
       </c>
       <c r="G27" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H27" t="s">
         <v>86</v>
       </c>
       <c r="I27" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K27" t="s">
         <v>69</v>
@@ -1964,21 +1988,21 @@
         <v>6</v>
       </c>
       <c r="M27" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="N27" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B28" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D28" t="s">
         <v>0</v>
@@ -1990,13 +2014,13 @@
         <v>6</v>
       </c>
       <c r="G28" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H28" t="s">
         <v>86</v>
       </c>
       <c r="I28" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K28" t="s">
         <v>69</v>
@@ -2005,21 +2029,21 @@
         <v>75</v>
       </c>
       <c r="M28" t="s">
+        <v>193</v>
+      </c>
+      <c r="N28" t="s">
         <v>194</v>
       </c>
-      <c r="N28" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B29" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D29" t="s">
         <v>0</v>
@@ -2031,13 +2055,13 @@
         <v>6</v>
       </c>
       <c r="G29" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H29" t="s">
         <v>86</v>
       </c>
       <c r="I29" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K29" t="s">
         <v>69</v>
@@ -2046,21 +2070,21 @@
         <v>70</v>
       </c>
       <c r="M29" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="N29" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B30" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D30" t="s">
         <v>0</v>
@@ -2072,13 +2096,13 @@
         <v>6</v>
       </c>
       <c r="G30" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H30" t="s">
         <v>86</v>
       </c>
       <c r="I30" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K30" t="s">
         <v>69</v>
@@ -2087,21 +2111,21 @@
         <v>6</v>
       </c>
       <c r="M30" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="N30" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B31" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D31" t="s">
         <v>0</v>
@@ -2113,7 +2137,7 @@
         <v>6</v>
       </c>
       <c r="G31" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H31" t="s">
         <v>86</v>
@@ -2122,18 +2146,18 @@
         <v>28</v>
       </c>
       <c r="K31" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B32" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D32" t="s">
         <v>0</v>
@@ -2145,13 +2169,13 @@
         <v>6</v>
       </c>
       <c r="G32" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H32" t="s">
         <v>86</v>
       </c>
       <c r="I32" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K32" t="s">
         <v>69</v>
@@ -2160,21 +2184,21 @@
         <v>75</v>
       </c>
       <c r="M32" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="N32" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B33" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D33" t="s">
         <v>0</v>
@@ -2186,27 +2210,36 @@
         <v>6</v>
       </c>
       <c r="G33" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H33" t="s">
         <v>86</v>
       </c>
       <c r="I33" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K33" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="L33" t="s">
+        <v>191</v>
+      </c>
+      <c r="M33" t="s">
+        <v>265</v>
+      </c>
+      <c r="P33" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B34" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D34" t="s">
         <v>0</v>
@@ -2221,7 +2254,7 @@
         <v>87</v>
       </c>
       <c r="I34" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K34" t="s">
         <v>69</v>
@@ -2230,21 +2263,21 @@
         <v>70</v>
       </c>
       <c r="M34" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="N34" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B35" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D35" t="s">
         <v>0</v>
@@ -2259,7 +2292,7 @@
         <v>87</v>
       </c>
       <c r="I35" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="K35" t="s">
         <v>69</v>
@@ -2268,18 +2301,18 @@
         <v>70</v>
       </c>
       <c r="M35" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B36" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D36" t="s">
         <v>0</v>
@@ -2294,27 +2327,27 @@
         <v>87</v>
       </c>
       <c r="I36" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K36" t="s">
         <v>69</v>
       </c>
       <c r="L36" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M36" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B37" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D37" t="s">
         <v>0</v>
@@ -2335,15 +2368,15 @@
         <v>76</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B38" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D38" t="s">
         <v>0</v>
@@ -2358,21 +2391,30 @@
         <v>89</v>
       </c>
       <c r="I38" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K38" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="L38" t="s">
+        <v>72</v>
+      </c>
+      <c r="M38" t="s">
+        <v>96</v>
+      </c>
+      <c r="N38" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B39" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D39" t="s">
         <v>0</v>
@@ -2387,21 +2429,21 @@
         <v>89</v>
       </c>
       <c r="I39" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K39" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D40" t="s">
         <v>0</v>
@@ -2419,148 +2461,148 @@
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B41" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>0</v>
       </c>
       <c r="H41" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B42" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H42" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B43" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H43" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>171</v>
+      </c>
+      <c r="B44" t="s">
+        <v>141</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="H44" s="2" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="44" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>172</v>
-      </c>
-      <c r="B44" t="s">
-        <v>142</v>
-      </c>
-      <c r="C44" s="4" t="s">
+    <row r="45" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>171</v>
+      </c>
+      <c r="B45" t="s">
+        <v>141</v>
+      </c>
+      <c r="C45" s="4" t="s">
         <v>159</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="H44" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>172</v>
-      </c>
-      <c r="B45" t="s">
-        <v>142</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>160</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B46" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B47" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B48" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="49" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B49" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" t="s">
@@ -2570,15 +2612,15 @@
         <v>8</v>
       </c>
       <c r="H49" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="50" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B50" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C50" s="5"/>
       <c r="D50" t="s">
@@ -2588,18 +2630,18 @@
         <v>9</v>
       </c>
       <c r="H50" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B51" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D51" t="s">
         <v>0</v>
@@ -2611,7 +2653,7 @@
         <v>16</v>
       </c>
       <c r="H51" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K51" t="s">
         <v>69</v>
@@ -2620,21 +2662,21 @@
         <v>72</v>
       </c>
       <c r="M51" t="s">
+        <v>96</v>
+      </c>
+      <c r="N51" t="s">
         <v>97</v>
-      </c>
-      <c r="N51" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B52" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D52" t="s">
         <v>0</v>
@@ -2646,7 +2688,7 @@
         <v>16</v>
       </c>
       <c r="H52" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K52" t="s">
         <v>69</v>
@@ -2655,21 +2697,21 @@
         <v>72</v>
       </c>
       <c r="M52" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N52" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B53" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D53" t="s">
         <v>0</v>
@@ -2681,7 +2723,7 @@
         <v>16</v>
       </c>
       <c r="H53" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K53" t="s">
         <v>69</v>
@@ -2690,21 +2732,21 @@
         <v>72</v>
       </c>
       <c r="M53" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N53" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B54" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D54" t="s">
         <v>0</v>
@@ -2724,13 +2766,13 @@
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B55" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D55" t="s">
         <v>0</v>
@@ -2750,13 +2792,13 @@
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B56" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D56" t="s">
         <v>0</v>
@@ -2774,18 +2816,18 @@
         <v>6</v>
       </c>
       <c r="M56" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B57" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D57" t="s">
         <v>0</v>
@@ -2797,18 +2839,18 @@
         <v>20</v>
       </c>
       <c r="K57" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B58" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D58" t="s">
         <v>0</v>
@@ -2820,7 +2862,7 @@
         <v>21</v>
       </c>
       <c r="H58" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K58" t="s">
         <v>69</v>
@@ -2829,7 +2871,7 @@
         <v>6</v>
       </c>
       <c r="M58" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="N58" t="s">
         <v>85</v>
@@ -2837,13 +2879,13 @@
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B59" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D59" t="s">
         <v>0</v>
@@ -2855,7 +2897,7 @@
         <v>21</v>
       </c>
       <c r="H59" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K59" t="s">
         <v>69</v>
@@ -2864,21 +2906,21 @@
         <v>6</v>
       </c>
       <c r="M59" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="N59" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B60" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D60" t="s">
         <v>0</v>
@@ -2890,7 +2932,7 @@
         <v>21</v>
       </c>
       <c r="H60" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K60" t="s">
         <v>69</v>
@@ -2899,21 +2941,21 @@
         <v>6</v>
       </c>
       <c r="M60" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="N60" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B61" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D61" t="s">
         <v>0</v>
@@ -2925,7 +2967,7 @@
         <v>21</v>
       </c>
       <c r="H61" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K61" t="s">
         <v>69</v>
@@ -2934,21 +2976,21 @@
         <v>6</v>
       </c>
       <c r="M61" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="N61" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B62" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D62" t="s">
         <v>0</v>
@@ -2957,7 +2999,7 @@
         <v>9</v>
       </c>
       <c r="F62" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K62" t="s">
         <v>69</v>
@@ -2966,18 +3008,18 @@
         <v>72</v>
       </c>
       <c r="M62" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B63" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D63" t="s">
         <v>0</v>
@@ -2997,13 +3039,13 @@
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B64" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D64" t="s">
         <v>0</v>
@@ -3015,18 +3057,18 @@
         <v>23</v>
       </c>
       <c r="K64" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B65" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D65" t="s">
         <v>0</v>
@@ -3046,13 +3088,13 @@
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B66" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D66" t="s">
         <v>0</v>
@@ -3072,13 +3114,13 @@
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B67" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D67" t="s">
         <v>0</v>
@@ -3096,21 +3138,21 @@
         <v>14</v>
       </c>
       <c r="M67" t="s">
+        <v>106</v>
+      </c>
+      <c r="N67" t="s">
         <v>107</v>
-      </c>
-      <c r="N67" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B68" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D68" t="s">
         <v>0</v>
@@ -3130,146 +3172,146 @@
     </row>
     <row r="69" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B69" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>0</v>
       </c>
       <c r="H69" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="70" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B70" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H70" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="71" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B71" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="72" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B72" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="73" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B73" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="74" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B74" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="75" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B75" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="76" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B76" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="77" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B77" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C77" s="4"/>
       <c r="D77" t="s">
@@ -3279,15 +3321,15 @@
         <v>8</v>
       </c>
       <c r="H77" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="78" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B78" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C78" s="5"/>
       <c r="D78" t="s">
@@ -3297,18 +3339,18 @@
         <v>9</v>
       </c>
       <c r="H78" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B79" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D79" t="s">
         <v>10</v>
@@ -3320,7 +3362,7 @@
         <v>27</v>
       </c>
       <c r="H79" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K79" t="s">
         <v>69</v>
@@ -3329,21 +3371,21 @@
         <v>75</v>
       </c>
       <c r="M79" t="s">
+        <v>209</v>
+      </c>
+      <c r="N79" t="s">
         <v>210</v>
-      </c>
-      <c r="N79" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B80" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D80" t="s">
         <v>10</v>
@@ -3355,7 +3397,7 @@
         <v>27</v>
       </c>
       <c r="H80" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K80" t="s">
         <v>69</v>
@@ -3364,21 +3406,21 @@
         <v>75</v>
       </c>
       <c r="M80" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="N80" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B81" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D81" t="s">
         <v>10</v>
@@ -3399,21 +3441,21 @@
         <v>75</v>
       </c>
       <c r="M81" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="N81" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B82" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D82" t="s">
         <v>10</v>
@@ -3425,7 +3467,7 @@
         <v>27</v>
       </c>
       <c r="H82" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K82" t="s">
         <v>66</v>
@@ -3436,13 +3478,13 @@
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B83" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D83" t="s">
         <v>10</v>
@@ -3465,13 +3507,13 @@
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B84" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D84" t="s">
         <v>10</v>
@@ -3494,13 +3536,13 @@
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B85" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D85" t="s">
         <v>10</v>
@@ -3512,7 +3554,7 @@
         <v>17</v>
       </c>
       <c r="H85" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K85" t="s">
         <v>69</v>
@@ -3521,15 +3563,15 @@
         <v>17</v>
       </c>
       <c r="M85" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B86" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C86" s="6"/>
       <c r="D86" t="s">
@@ -3542,7 +3584,7 @@
         <v>17</v>
       </c>
       <c r="H86" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K86" t="s">
         <v>69</v>
@@ -3551,15 +3593,15 @@
         <v>17</v>
       </c>
       <c r="M86" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B87" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C87" s="6"/>
       <c r="D87" t="s">
@@ -3572,18 +3614,18 @@
         <v>17</v>
       </c>
       <c r="H87" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K87" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B88" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C88" s="6"/>
       <c r="D88" t="s">
@@ -3596,18 +3638,18 @@
         <v>17</v>
       </c>
       <c r="H88" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="K88" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B89" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C89" s="6"/>
       <c r="D89" t="s">
@@ -3620,7 +3662,7 @@
         <v>17</v>
       </c>
       <c r="H89" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K89" t="s">
         <v>69</v>
@@ -3629,15 +3671,15 @@
         <v>17</v>
       </c>
       <c r="M89" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B90" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C90" s="6"/>
       <c r="D90" t="s">
@@ -3650,7 +3692,7 @@
         <v>17</v>
       </c>
       <c r="H90" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="K90" t="s">
         <v>69</v>
@@ -3659,15 +3701,15 @@
         <v>17</v>
       </c>
       <c r="M90" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B91" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C91" s="6"/>
       <c r="D91" t="s">
@@ -3680,7 +3722,7 @@
         <v>17</v>
       </c>
       <c r="H91" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="K91" t="s">
         <v>69</v>
@@ -3689,18 +3731,18 @@
         <v>17</v>
       </c>
       <c r="M91" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B92" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D92" t="s">
         <v>10</v>
@@ -3720,13 +3762,13 @@
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B93" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D93" t="s">
         <v>10</v>
@@ -3738,18 +3780,18 @@
         <v>28</v>
       </c>
       <c r="K93" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B94" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D94" t="s">
         <v>10</v>
@@ -3761,21 +3803,21 @@
         <v>29</v>
       </c>
       <c r="K94" t="s">
+        <v>221</v>
+      </c>
+      <c r="L94" t="s">
         <v>222</v>
-      </c>
-      <c r="L94" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B95" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D95" t="s">
         <v>10</v>
@@ -3795,146 +3837,146 @@
     </row>
     <row r="96" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B96" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>0</v>
       </c>
       <c r="H96" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="97" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B97" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H97" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="98" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B98" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="99" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B99" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="100" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B100" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="101" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B101" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="102" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B102" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D102" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="103" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B103" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D103" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="104" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B104" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C104" s="4"/>
       <c r="D104" t="s">
@@ -3944,15 +3986,15 @@
         <v>8</v>
       </c>
       <c r="H104" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="105" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B105" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C105" s="5"/>
       <c r="D105" t="s">
@@ -3962,15 +4004,15 @@
         <v>9</v>
       </c>
       <c r="H105" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="106" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B106" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C106" s="5"/>
       <c r="D106" t="s">
@@ -3980,7 +4022,7 @@
         <v>9</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H106"/>
       <c r="K106" s="2" t="s">
@@ -3992,13 +4034,13 @@
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B107" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D107" t="s">
         <v>10</v>
@@ -4010,7 +4052,7 @@
         <v>31</v>
       </c>
       <c r="H107" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K107" t="s">
         <v>69</v>
@@ -4019,21 +4061,21 @@
         <v>72</v>
       </c>
       <c r="M107" t="s">
+        <v>96</v>
+      </c>
+      <c r="N107" t="s">
         <v>97</v>
-      </c>
-      <c r="N107" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B108" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D108" t="s">
         <v>10</v>
@@ -4045,7 +4087,7 @@
         <v>31</v>
       </c>
       <c r="H108" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K108" t="s">
         <v>69</v>
@@ -4054,21 +4096,21 @@
         <v>72</v>
       </c>
       <c r="M108" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N108" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B109" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D109" t="s">
         <v>10</v>
@@ -4088,13 +4130,13 @@
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B110" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D110" t="s">
         <v>10</v>
@@ -4103,7 +4145,7 @@
         <v>9</v>
       </c>
       <c r="F110" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K110" t="s">
         <v>69</v>
@@ -4114,13 +4156,13 @@
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B111" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D111" t="s">
         <v>10</v>
@@ -4140,13 +4182,13 @@
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B112" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D112" t="s">
         <v>10</v>
@@ -4158,18 +4200,18 @@
         <v>20</v>
       </c>
       <c r="K112" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B113" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D113" t="s">
         <v>10</v>
@@ -4181,7 +4223,7 @@
         <v>34</v>
       </c>
       <c r="H113" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K113" t="s">
         <v>69</v>
@@ -4190,18 +4232,18 @@
         <v>75</v>
       </c>
       <c r="M113" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="N113" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B114" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C114" s="6"/>
       <c r="D114" t="s">
@@ -4214,7 +4256,7 @@
         <v>34</v>
       </c>
       <c r="H114" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K114" t="s">
         <v>69</v>
@@ -4223,18 +4265,18 @@
         <v>75</v>
       </c>
       <c r="M114" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="N114" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B115" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C115" s="6"/>
       <c r="D115" t="s">
@@ -4256,18 +4298,18 @@
         <v>75</v>
       </c>
       <c r="M115" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="N115" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B116" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C116" s="6"/>
       <c r="D116" t="s">
@@ -4280,7 +4322,7 @@
         <v>34</v>
       </c>
       <c r="H116" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K116" t="s">
         <v>69</v>
@@ -4289,15 +4331,15 @@
         <v>75</v>
       </c>
       <c r="M116" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B117" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C117" s="6"/>
       <c r="D117" t="s">
@@ -4310,7 +4352,7 @@
         <v>34</v>
       </c>
       <c r="H117" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="K117" t="s">
         <v>69</v>
@@ -4319,21 +4361,21 @@
         <v>70</v>
       </c>
       <c r="M117" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="N117" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B118" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D118" t="s">
         <v>10</v>
@@ -4345,24 +4387,24 @@
         <v>35</v>
       </c>
       <c r="K118" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L118" t="s">
+        <v>230</v>
+      </c>
+      <c r="M118" t="s">
         <v>231</v>
-      </c>
-      <c r="M118" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B119" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D119" t="s">
         <v>10</v>
@@ -4385,13 +4427,13 @@
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B120" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D120" t="s">
         <v>10</v>
@@ -4403,7 +4445,7 @@
         <v>37</v>
       </c>
       <c r="H120" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="K120" t="s">
         <v>69</v>
@@ -4415,18 +4457,18 @@
         <v>37</v>
       </c>
       <c r="N120" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B121" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D121" t="s">
         <v>10</v>
@@ -4438,7 +4480,7 @@
         <v>37</v>
       </c>
       <c r="H121" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K121" t="s">
         <v>69</v>
@@ -4450,18 +4492,18 @@
         <v>37</v>
       </c>
       <c r="N121" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B122" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D122" t="s">
         <v>10</v>
@@ -4473,7 +4515,7 @@
         <v>37</v>
       </c>
       <c r="H122" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K122" t="s">
         <v>69</v>
@@ -4485,18 +4527,18 @@
         <v>37</v>
       </c>
       <c r="N122" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B123" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D123" t="s">
         <v>10</v>
@@ -4508,7 +4550,7 @@
         <v>37</v>
       </c>
       <c r="H123" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K123" t="s">
         <v>69</v>
@@ -4520,18 +4562,18 @@
         <v>37</v>
       </c>
       <c r="N123" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B124" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D124" t="s">
         <v>10</v>
@@ -4543,7 +4585,7 @@
         <v>37</v>
       </c>
       <c r="H124" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K124" t="s">
         <v>69</v>
@@ -4555,18 +4597,18 @@
         <v>37</v>
       </c>
       <c r="N124" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B125" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D125" t="s">
         <v>10</v>
@@ -4584,18 +4626,18 @@
         <v>70</v>
       </c>
       <c r="M125" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B126" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D126" t="s">
         <v>10</v>
@@ -4607,18 +4649,18 @@
         <v>22</v>
       </c>
       <c r="K126" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B127" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C127" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D127" t="s">
         <v>10</v>
@@ -4641,13 +4683,13 @@
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B128" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C128" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D128" t="s">
         <v>10</v>
@@ -4667,13 +4709,13 @@
     </row>
     <row r="129" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B129" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C129" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D129" t="s">
         <v>10</v>
@@ -4691,18 +4733,18 @@
         <v>14</v>
       </c>
       <c r="M129" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="130" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B130" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C130" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D130" t="s">
         <v>10</v>
@@ -4720,154 +4762,154 @@
         <v>14</v>
       </c>
       <c r="M130" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="131" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B131" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D131" s="2" t="s">
         <v>0</v>
       </c>
       <c r="H131" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="132" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B132" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H132" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="133" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B133" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D133" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H133" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="134" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
+        <v>165</v>
+      </c>
+      <c r="B134" t="s">
+        <v>144</v>
+      </c>
+      <c r="C134" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="H134" s="2" t="s">
         <v>166</v>
-      </c>
-      <c r="B134" t="s">
-        <v>145</v>
-      </c>
-      <c r="C134" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="H134" s="2" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="135" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B135" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D135" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H135" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="136" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B136" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D136" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H136" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="137" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B137" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D137" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H137" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="138" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B138" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D138" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H138" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="139" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B139" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C139" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D139" t="s">
         <v>11</v>
@@ -4882,24 +4924,24 @@
         <v>65</v>
       </c>
       <c r="M139" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="O139" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="P139" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="140" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B140" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C140" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D140" t="s">
         <v>11</v>
@@ -4914,18 +4956,18 @@
         <v>75</v>
       </c>
       <c r="M140" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="141" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B141" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C141" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D141" t="s">
         <v>11</v>
@@ -4940,18 +4982,18 @@
         <v>75</v>
       </c>
       <c r="M141" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="142" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B142" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C142" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D142" t="s">
         <v>11</v>
@@ -4968,305 +5010,305 @@
     </row>
     <row r="143" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B143" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D143" s="2" t="s">
         <v>0</v>
       </c>
       <c r="H143" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="144" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B144" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H144" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="145" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B145" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D145" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H145" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="146" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B146" t="s">
+        <v>149</v>
+      </c>
+      <c r="C146" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="D146" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C146" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="D146" s="2" t="s">
-        <v>151</v>
-      </c>
       <c r="H146" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="147" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B147" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D147" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H147" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="148" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B148" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D148" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H148" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="149" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B149" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D149" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H149" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="150" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B150" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D150" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H150" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B151" t="s">
+        <v>149</v>
+      </c>
+      <c r="D151" t="s">
         <v>150</v>
       </c>
-      <c r="D151" t="s">
+      <c r="F151" t="s">
         <v>151</v>
       </c>
-      <c r="F151" t="s">
-        <v>152</v>
-      </c>
       <c r="K151" t="s">
+        <v>221</v>
+      </c>
+      <c r="L151" t="s">
         <v>222</v>
-      </c>
-      <c r="L151" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="152" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B152" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D152" s="2" t="s">
         <v>0</v>
       </c>
       <c r="H152" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="153" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B153" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H153" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="154" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B154" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D154" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H154" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="155" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B155" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H155" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="156" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B156" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D156" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H156" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="157" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B157" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D157" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H157" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="158" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B158" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D158" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H158" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="159" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B159" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D159" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H159" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B160" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C160" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D160" t="s">
         <v>12</v>
@@ -5275,18 +5317,18 @@
         <v>45</v>
       </c>
       <c r="K160" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="161" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B161" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C161" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D161" t="s">
         <v>12</v>
@@ -5295,18 +5337,18 @@
         <v>46</v>
       </c>
       <c r="K161" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="162" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B162" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C162" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D162" t="s">
         <v>12</v>
@@ -5321,18 +5363,18 @@
         <v>17</v>
       </c>
       <c r="M162" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="163" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B163" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C163" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D163" t="s">
         <v>12</v>
@@ -5341,154 +5383,154 @@
         <v>48</v>
       </c>
       <c r="K163" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="164" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B164" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D164" s="2" t="s">
         <v>0</v>
       </c>
       <c r="H164" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="165" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B165" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D165" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H165" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="166" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B166" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D166" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H166" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="167" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B167" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H167" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="168" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B168" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D168" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H168" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="169" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D169" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H169" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="170" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D170" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H170" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="171" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B171" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D171" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H171" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="172" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B172" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C172" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D172" t="s">
         <v>13</v>
@@ -5503,21 +5545,21 @@
         <v>13</v>
       </c>
       <c r="M172" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="O172" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="173" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B173" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C173" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D173" t="s">
         <v>13</v>
@@ -5532,18 +5574,18 @@
         <v>13</v>
       </c>
       <c r="O173" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="174" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B174" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C174" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D174" t="s">
         <v>13</v>
@@ -5558,21 +5600,21 @@
         <v>13</v>
       </c>
       <c r="M174" t="s">
+        <v>251</v>
+      </c>
+      <c r="N174" t="s">
         <v>252</v>
-      </c>
-      <c r="N174" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="175" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B175" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C175" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D175" t="s">
         <v>13</v>
@@ -5587,157 +5629,157 @@
         <v>13</v>
       </c>
       <c r="M175" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="N175" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="176" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B176" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D176" s="2" t="s">
         <v>0</v>
       </c>
       <c r="H176" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="177" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B177" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D177" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H177" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="178" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B178" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D178" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H178" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="179" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B179" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H179" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="180" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B180" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D180" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H180" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="181" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B181" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D181" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H181" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="182" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B182" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D182" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H182" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="183" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B183" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D183" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H183" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="184" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B184" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C184" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D184" t="s">
         <v>14</v>
@@ -5752,21 +5794,21 @@
         <v>14</v>
       </c>
       <c r="M184" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="O184" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="185" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B185" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C185" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D185" t="s">
         <v>14</v>
@@ -5781,21 +5823,21 @@
         <v>14</v>
       </c>
       <c r="M185" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="O185" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="186" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B186" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C186" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D186" t="s">
         <v>14</v>
@@ -5810,154 +5852,154 @@
         <v>67</v>
       </c>
       <c r="O186" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="187" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B187" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D187" s="2" t="s">
         <v>0</v>
       </c>
       <c r="H187" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="188" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B188" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D188" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H188" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="189" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B189" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D189" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H189" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="190" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B190" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H190" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="191" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B191" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C191" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D191" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H191" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="192" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B192" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C192" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D192" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H192" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="193" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B193" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D193" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H193" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="194" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B194" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C194" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D194" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H194" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="195" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B195" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C195" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D195" t="s">
         <v>15</v>
@@ -5966,18 +6008,18 @@
         <v>56</v>
       </c>
       <c r="K195" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="196" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B196" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C196" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D196" t="s">
         <v>15</v>
@@ -5986,18 +6028,18 @@
         <v>57</v>
       </c>
       <c r="K196" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="197" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B197" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C197" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D197" t="s">
         <v>15</v>
@@ -6012,24 +6054,24 @@
         <v>6</v>
       </c>
       <c r="M197" t="s">
+        <v>191</v>
+      </c>
+      <c r="N197" t="s">
         <v>192</v>
       </c>
-      <c r="N197" t="s">
-        <v>193</v>
-      </c>
       <c r="P197" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="198" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B198" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C198" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D198" t="s">
         <v>15</v>
@@ -6038,18 +6080,18 @@
         <v>59</v>
       </c>
       <c r="K198" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="199" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B199" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C199" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D199" t="s">
         <v>15</v>
@@ -6058,18 +6100,18 @@
         <v>60</v>
       </c>
       <c r="K199" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="200" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B200" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C200" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D200" t="s">
         <v>15</v>
@@ -6078,21 +6120,21 @@
         <v>61</v>
       </c>
       <c r="K200" t="s">
+        <v>221</v>
+      </c>
+      <c r="L200" t="s">
         <v>222</v>
-      </c>
-      <c r="L200" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="201" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B201" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C201" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D201" t="s">
         <v>15</v>
@@ -6101,21 +6143,21 @@
         <v>62</v>
       </c>
       <c r="K201" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L201" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="202" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B202" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C202" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D202" t="s">
         <v>15</v>
@@ -6124,160 +6166,160 @@
         <v>63</v>
       </c>
       <c r="K202" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="203" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B203" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C203" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D203" s="2" t="s">
         <v>0</v>
       </c>
       <c r="H203" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="204" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B204" t="s">
+        <v>152</v>
+      </c>
+      <c r="C204" s="4" t="s">
         <v>153</v>
-      </c>
-      <c r="C204" s="4" t="s">
-        <v>154</v>
       </c>
       <c r="D204" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H204" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="205" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B205" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C205" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D205" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H205" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="206" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B206" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C206" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H206" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="207" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B207" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C207" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D207" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H207" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="208" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B208" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C208" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D208" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H208" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="209" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B209" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C209" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D209" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H209" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="210" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B210" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C210" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D210" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H210" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B211" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C211" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D211" t="s">
         <v>77</v>
       </c>
       <c r="K211" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>
